--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55E41E-7932-4C9E-92F1-C6BA60497406}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA42892-F393-4E24-AE45-49CEBDE8FB86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -451,6 +451,14 @@
         <v>44215</v>
       </c>
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>44219</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA42892-F393-4E24-AE45-49CEBDE8FB86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB1808C-75A3-43C0-88E9-7CB4F7367756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,7 +443,7 @@
         <v>44211</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -451,7 +451,7 @@
         <v>44215</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -459,7 +459,7 @@
         <v>44219</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB1808C-75A3-43C0-88E9-7CB4F7367756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826E174-7480-47AF-A0B3-F3BE62DE56D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -460,6 +460,14 @@
       </c>
       <c r="B4" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826E174-7480-47AF-A0B3-F3BE62DE56D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24F680-4BB5-4F6B-AF27-C573D8D8C28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,6 +468,14 @@
       </c>
       <c r="B5" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24F680-4BB5-4F6B-AF27-C573D8D8C28C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DF88E-72F7-42CD-A6AF-5EA1C7398045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -476,6 +476,14 @@
       </c>
       <c r="B6" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DF88E-72F7-42CD-A6AF-5EA1C7398045}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09231A7-5C7C-4325-B22A-C554304EB471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,13 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zha</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,61 +438,96 @@
     <col min="2" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>44211</v>
       </c>
       <c r="B2" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>44215</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>44219</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>44232</v>
       </c>
       <c r="B5" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>44234</v>
       </c>
       <c r="B6" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>44238</v>
       </c>
       <c r="B7" s="1">
         <v>8.5</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>44243</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09231A7-5C7C-4325-B22A-C554304EB471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC01FCA7-6E8F-4A37-B7F8-5B785A5B7B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,7 +527,15 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>44265</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC01FCA7-6E8F-4A37-B7F8-5B785A5B7B76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16845B51-8E1A-4D4B-8952-7AE1FE68CB1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,7 +31,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zha</t>
+    <t>晨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,6 +534,17 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>44289</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
     </row>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16845B51-8E1A-4D4B-8952-7AE1FE68CB1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1936907-2026-40FC-93D0-9F9AF6A4C6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,6 +550,83 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>44342</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>44348</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>44353</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>44354</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1936907-2026-40FC-93D0-9F9AF6A4C6B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A2F7C0-7500-4650-80BF-944DF89AF8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,6 +626,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A2F7C0-7500-4650-80BF-944DF89AF8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057A74B-A320-4269-BCFA-CF635E2079C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -637,6 +637,17 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>44357</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8057A74B-A320-4269-BCFA-CF635E2079C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5968CCD-6763-44B7-AAD3-40881D42A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -648,6 +648,28 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>44360</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,21 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5968CCD-6763-44B7-AAD3-40881D42A74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD3B2F-F9B0-43DE-BB8C-37F64E70D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="1950" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="3480" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,37 +671,64 @@
         <v>4</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>44361</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>44363</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD3B2F-F9B0-43DE-BB8C-37F64E70D37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838F2F9-B789-4F12-9E3B-F50465D77C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3480" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,6 +726,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>44371</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838F2F9-B789-4F12-9E3B-F50465D77C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE515A36-8979-4C03-B789-705F2D67E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -737,6 +737,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>44373</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE515A36-8979-4C03-B789-705F2D67E1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC04CAD-B062-4069-A52F-3576E4265BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -759,6 +759,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>44374</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC04CAD-B062-4069-A52F-3576E4265BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FEFD12-D8A4-4CC2-A723-23C7F3C4C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,6 +770,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>44375</v>
+      </c>
+      <c r="B32" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FEFD12-D8A4-4CC2-A723-23C7F3C4C94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A78E5C-A222-4465-B272-38E7E3711401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,6 +792,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B33" s="1">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A78E5C-A222-4465-B272-38E7E3711401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC65C1-F344-4907-8BE4-76DF89F25CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,6 +825,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>44380</v>
+      </c>
+      <c r="B36" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC65C1-F344-4907-8BE4-76DF89F25CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E74F5-DAD9-4E65-96E6-5C9321DD6DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -836,6 +836,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>44381</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59E74F5-DAD9-4E65-96E6-5C9321DD6DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B377B0E-A51B-4525-8C21-D32FBB3A31B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,6 +847,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B38" s="1">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B377B0E-A51B-4525-8C21-D32FBB3A31B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532A4E7-89B5-4423-9759-7E7302CE57F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,6 +858,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2532A4E7-89B5-4423-9759-7E7302CE57F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F4052-233B-4792-9D05-77C4D383907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -869,6 +869,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B41" s="1">
+        <v>8</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0F4052-233B-4792-9D05-77C4D383907E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9AAECE-1210-49DC-94FA-02AFD17E4A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -891,6 +891,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B42" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>44387</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9AAECE-1210-49DC-94FA-02AFD17E4A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B6BC9D-CF9C-41F3-AD6C-0FDBC465C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -924,6 +924,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>44388</v>
+      </c>
+      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B6BC9D-CF9C-41F3-AD6C-0FDBC465C624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FFF7D-FCFE-49FF-B9CF-E84C8EC76352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A46" sqref="A46:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,6 +935,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B46" s="1">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B47" s="1">
+        <v>8</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>44391</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625FFF7D-FCFE-49FF-B9CF-E84C8EC76352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761326E0-EF2C-4911-9A29-6120523BB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:C48"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -968,6 +968,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>44401</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761326E0-EF2C-4911-9A29-6120523BB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,11 +35,15 @@
     <t>甜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>wade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,23 +186,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,23 +221,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -979,6 +948,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>44404</v>
+      </c>
+      <c r="B50" s="1">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -959,6 +959,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>44409</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68856158-6224-4667-A2C3-8D737B4DDB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -186,6 +187,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,11 +431,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -970,6 +1005,39 @@
         <v>4</v>
       </c>
     </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>44440</v>
+      </c>
+      <c r="B52" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>44443</v>
+      </c>
+      <c r="B53" s="1">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>44444</v>
+      </c>
+      <c r="B54" s="1">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68856158-6224-4667-A2C3-8D737B4DDB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F76123-650C-4274-8510-D7FDDBB8C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1038,6 +1038,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>44442</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F76123-650C-4274-8510-D7FDDBB8C258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBF108-F97F-4AA0-BDA9-36014108D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1049,6 +1049,75 @@
         <v>5</v>
       </c>
     </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>44483</v>
+      </c>
+      <c r="B57" s="1">
+        <v>9</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B58" s="1">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B59" s="1">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>44485</v>
+      </c>
+      <c r="B61" s="1">
+        <v>10</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBF108-F97F-4AA0-BDA9-36014108D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DB4BC-D9BC-45E9-AFAD-52E375B6497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1116,7 +1116,15 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DB4BC-D9BC-45E9-AFAD-52E375B6497F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE910D5-69AC-4558-AF3E-5F71FBC65233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1126,6 +1126,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>44486</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE910D5-69AC-4558-AF3E-5F71FBC65233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C766F30-0B81-42B5-A6F8-79F0955FC3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1137,6 +1137,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B64" s="1">
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>44487</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C766F30-0B81-42B5-A6F8-79F0955FC3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB49531-A4B0-467C-8276-6545FFF553F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1159,6 +1159,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>44489</v>
+      </c>
+      <c r="B66" s="1">
+        <v>8</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB49531-A4B0-467C-8276-6545FFF553F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B701D48D-7CC4-487B-B908-2B21BE8ABE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,6 +1170,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>44490</v>
+      </c>
+      <c r="B67" s="1">
+        <v>8</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>44491</v>
+      </c>
+      <c r="B68" s="1">
+        <v>10</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B701D48D-7CC4-487B-B908-2B21BE8ABE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190155F7-DC56-4B8B-8B33-56FE5B7E38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,6 +1192,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>44492</v>
+      </c>
+      <c r="B69" s="1">
+        <v>8</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190155F7-DC56-4B8B-8B33-56FE5B7E38B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9EBB3-8AD5-4011-AEB7-73F1512682E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1203,6 +1203,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>44494</v>
+      </c>
+      <c r="B70" s="1">
+        <v>7</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A9EBB3-8AD5-4011-AEB7-73F1512682E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBFAA1E-9D0F-48B2-B176-F2499C9773CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,6 +1214,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B71" s="1">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBFAA1E-9D0F-48B2-B176-F2499C9773CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF68398-78BC-47D6-B8D2-AC17E651F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1225,6 +1225,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>44497</v>
+      </c>
+      <c r="B72" s="1">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF68398-78BC-47D6-B8D2-AC17E651F0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DCD6E-AF24-4AF1-8806-DB3DA8D479E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1236,6 +1236,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>44499</v>
+      </c>
+      <c r="B73" s="1">
+        <v>7</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B74" s="1">
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>44500</v>
+      </c>
+      <c r="B75" s="1">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DCD6E-AF24-4AF1-8806-DB3DA8D479E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196DDF64-FEE4-477D-B8BE-BAB6F6690EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,6 +1269,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>44502</v>
+      </c>
+      <c r="B76" s="1">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>44503</v>
+      </c>
+      <c r="B77" s="1">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196DDF64-FEE4-477D-B8BE-BAB6F6690EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7ADA08-EE91-4418-8F88-CD9B69BCEAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1291,6 +1291,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B78" s="1">
+        <v>8</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7ADA08-EE91-4418-8F88-CD9B69BCEAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E383A-3A75-4C7D-AD91-0038C6A45DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1302,6 +1302,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>44526</v>
+      </c>
+      <c r="B79" s="1">
+        <v>8</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5E383A-3A75-4C7D-AD91-0038C6A45DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59DA65F-5297-475D-8EA4-2999ED5EEFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1313,6 +1313,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B81" s="1">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>44529</v>
+      </c>
+      <c r="B82" s="1">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59DA65F-5297-475D-8EA4-2999ED5EEFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDF203-0066-4DE4-A778-FEA4AD5CE0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1346,6 +1346,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>44548</v>
+      </c>
+      <c r="B83" s="1">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FDF203-0066-4DE4-A778-FEA4AD5CE0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787ECC0B-09DB-4F23-A617-E51C555EF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1357,6 +1357,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>44549</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787ECC0B-09DB-4F23-A617-E51C555EF3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B05347-49F3-48F7-99F8-E6A3BF784BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="6">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,6 +1368,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>44550</v>
+      </c>
+      <c r="B85" s="1">
+        <v>8</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -1,76 +1,404 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B05347-49F3-48F7-99F8-E6A3BF784BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="6">
   <si>
     <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>person</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>甜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -78,9 +406,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -95,17 +665,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -154,7 +768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,26 +801,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,23 +836,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,25 +1006,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>44211</v>
       </c>
@@ -466,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>44215</v>
       </c>
@@ -477,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>44219</v>
       </c>
@@ -488,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>44232</v>
       </c>
@@ -499,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>44234</v>
       </c>
@@ -510,7 +1090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>44238</v>
       </c>
@@ -521,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>44243</v>
       </c>
@@ -532,7 +1112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>44265</v>
       </c>
@@ -543,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>44289</v>
       </c>
@@ -554,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>44342</v>
       </c>
@@ -565,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>44348</v>
       </c>
@@ -576,7 +1156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>44348</v>
       </c>
@@ -587,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="2">
         <v>44353</v>
       </c>
@@ -598,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>44353</v>
       </c>
@@ -609,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="2">
         <v>44353</v>
       </c>
@@ -620,7 +1200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2">
         <v>44354</v>
       </c>
@@ -631,7 +1211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2">
         <v>44357</v>
       </c>
@@ -642,7 +1222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="2">
         <v>44357</v>
       </c>
@@ -653,7 +1233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="2">
         <v>44360</v>
       </c>
@@ -664,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="2">
         <v>44360</v>
       </c>
@@ -675,7 +1255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2">
         <v>44361</v>
       </c>
@@ -686,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2">
         <v>44361</v>
       </c>
@@ -697,7 +1277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="2">
         <v>44363</v>
       </c>
@@ -708,7 +1288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>44363</v>
       </c>
@@ -719,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="2">
         <v>44363</v>
       </c>
@@ -730,7 +1310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="2">
         <v>44371</v>
       </c>
@@ -741,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>44373</v>
       </c>
@@ -752,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="2">
         <v>44374</v>
       </c>
@@ -763,7 +1343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="2">
         <v>44374</v>
       </c>
@@ -774,7 +1354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="2">
         <v>44375</v>
       </c>
@@ -785,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="2">
         <v>44375</v>
       </c>
@@ -796,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="2">
         <v>44379</v>
       </c>
@@ -807,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="2">
         <v>44379</v>
       </c>
@@ -818,7 +1398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="2">
         <v>44379</v>
       </c>
@@ -829,7 +1409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="2">
         <v>44380</v>
       </c>
@@ -840,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>44381</v>
       </c>
@@ -851,7 +1431,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>44382</v>
       </c>
@@ -862,7 +1442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>44382</v>
       </c>
@@ -873,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>44383</v>
       </c>
@@ -884,7 +1464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>44383</v>
       </c>
@@ -895,7 +1475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="2">
         <v>44387</v>
       </c>
@@ -906,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="2">
         <v>44387</v>
       </c>
@@ -917,7 +1497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="2">
         <v>44388</v>
       </c>
@@ -928,7 +1508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="2">
         <v>44388</v>
       </c>
@@ -939,7 +1519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="2">
         <v>44391</v>
       </c>
@@ -950,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="2">
         <v>44391</v>
       </c>
@@ -961,7 +1541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="2">
         <v>44391</v>
       </c>
@@ -972,7 +1552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="2">
         <v>44401</v>
       </c>
@@ -983,7 +1563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="2">
         <v>44404</v>
       </c>
@@ -994,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="2">
         <v>44409</v>
       </c>
@@ -1005,7 +1585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="2">
         <v>44440</v>
       </c>
@@ -1016,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="2">
         <v>44443</v>
       </c>
@@ -1027,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="2">
         <v>44444</v>
       </c>
@@ -1038,7 +1618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="2">
         <v>44442</v>
       </c>
@@ -1049,7 +1629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="2">
         <v>44483</v>
       </c>
@@ -1060,7 +1640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="2">
         <v>44483</v>
       </c>
@@ -1071,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="2">
         <v>44484</v>
       </c>
@@ -1082,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="2">
         <v>44485</v>
       </c>
@@ -1093,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="2">
         <v>44485</v>
       </c>
@@ -1104,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="2">
         <v>44485</v>
       </c>
@@ -1115,7 +1695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="2">
         <v>44486</v>
       </c>
@@ -1126,7 +1706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="2">
         <v>44486</v>
       </c>
@@ -1137,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="2">
         <v>44487</v>
       </c>
@@ -1148,7 +1728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="2">
         <v>44487</v>
       </c>
@@ -1159,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="2">
         <v>44489</v>
       </c>
@@ -1170,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="2">
         <v>44490</v>
       </c>
@@ -1181,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="2">
         <v>44491</v>
       </c>
@@ -1192,7 +1772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="2">
         <v>44492</v>
       </c>
@@ -1203,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" s="2">
         <v>44494</v>
       </c>
@@ -1214,7 +1794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" s="2">
         <v>44497</v>
       </c>
@@ -1225,7 +1805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="2">
         <v>44497</v>
       </c>
@@ -1236,7 +1816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="2">
         <v>44499</v>
       </c>
@@ -1247,7 +1827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="2">
         <v>44500</v>
       </c>
@@ -1258,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" s="2">
         <v>44500</v>
       </c>
@@ -1269,7 +1849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" s="2">
         <v>44502</v>
       </c>
@@ -1280,7 +1860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" s="2">
         <v>44503</v>
       </c>
@@ -1291,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="2">
         <v>44525</v>
       </c>
@@ -1302,7 +1882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="2">
         <v>44526</v>
       </c>
@@ -1313,7 +1893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="2">
         <v>44529</v>
       </c>
@@ -1324,7 +1904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="2">
         <v>44529</v>
       </c>
@@ -1335,7 +1915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="2">
         <v>44529</v>
       </c>
@@ -1346,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="2">
         <v>44548</v>
       </c>
@@ -1357,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="2">
         <v>44549</v>
       </c>
@@ -1368,7 +1948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="2">
         <v>44550</v>
       </c>
@@ -1379,9 +1959,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>44552</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -39,12 +39,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,29 +54,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,30 +90,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,16 +97,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,10 +120,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,8 +167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +184,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,49 +206,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,43 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,31 +368,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,36 +387,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +397,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,32 +437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,6 +474,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -509,148 +502,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,10 +1005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1970,6 +1963,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>44553</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -39,10 +39,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -54,6 +54,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -61,15 +68,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,33 +89,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,10 +105,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,21 +162,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -196,6 +174,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,55 +206,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,121 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,17 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,6 +486,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,133 +517,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,10 +1005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1974,6 +1974,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>44556</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/kittycommit.xlsx
+++ b/kittycommit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -53,8 +53,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,7 +69,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,7 +77,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,6 +94,29 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,24 +138,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,19 +152,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,7 +177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,21 +185,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,187 +206,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +415,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,11 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,6 +461,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,17 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -505,10 +505,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -517,7 +517,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -526,124 +526,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,10 +1005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1985,6 +1985,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>44557</v>
+      </c>
+      <c r="B89" s="1">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B90" s="1">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
